--- a/Ajankäyttö.xlsx
+++ b/Ajankäyttö.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OhjEdPiirteet\Projekti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OhjEdPiirteet\Mygrep\Mygrep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D84D65-C236-493A-ACBE-4C21059C37A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E14A0-F0F1-404A-BFA7-34C36874F8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="1845" windowWidth="19125" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Käytetty aika</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Speksien lukeminen</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Inkrementit 1, 2 ja 3</t>
   </si>
 </sst>
 </file>
@@ -358,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,6 +399,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ajankäyttö.xlsx
+++ b/Ajankäyttö.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OhjEdPiirteet\Mygrep\Mygrep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E14A0-F0F1-404A-BFA7-34C36874F8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1FDD2-32B0-4538-BDAA-56A427823DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="1845" windowWidth="19125" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Käytetty aika</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Inkrementit 1, 2 ja 3</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Virheiden korjausta ja koodin läpikäyntiä</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Raportin teko</t>
   </si>
 </sst>
 </file>
@@ -364,17 +376,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -410,6 +422,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
